--- a/new receipts of DSO/new receipts of DSO 2022-08-23.xlsx
+++ b/new receipts of DSO/new receipts of DSO 2022-08-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="149">
   <si>
     <t>Обозначение документа</t>
   </si>
@@ -37,43 +37,432 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>АБВГ.123456.000</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.001 ПС</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.001 СБ</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.001 ТУ</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.009</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.009 СБ</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.010</t>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>14А15 ИЭ60   Издание первое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14А15.БВВ-РНС2.0000-0РР02
+</t>
+  </si>
+  <si>
+    <t>14с748 ИЭ17 часть 1
+Издание первое</t>
+  </si>
+  <si>
+    <t>14С748.0000-0Э6-23</t>
+  </si>
+  <si>
+    <t>15А28.Н.30.50.000 МЧ</t>
+  </si>
+  <si>
+    <t>15А28.П.55.25.002</t>
+  </si>
+  <si>
+    <t>15А28.П.55.25.101</t>
+  </si>
+  <si>
+    <t>15А28.Р.51.10.080 Э3</t>
+  </si>
+  <si>
+    <t>15А28.Р.51.10.240 Э3</t>
+  </si>
+  <si>
+    <t>1п10.П.45.00.000 СБ</t>
+  </si>
+  <si>
+    <t>1п10.П.55.00.000 СБ</t>
+  </si>
+  <si>
+    <t>353ЭУ374БЛ82-903-1153.0000-0С3</t>
+  </si>
+  <si>
+    <t>374СА11.02.07.000</t>
+  </si>
+  <si>
+    <t>374СА11.02.07.000  СБ</t>
+  </si>
+  <si>
+    <t>374СА11.02.07.100</t>
+  </si>
+  <si>
+    <t>374СА11.02.07.100  СБ</t>
+  </si>
+  <si>
+    <t>374СА11.02.07.210 СБ</t>
+  </si>
+  <si>
+    <t>3Л-30.30.00.000 СБ</t>
+  </si>
+  <si>
+    <t>3Л-30.30.00.100 СБ</t>
+  </si>
+  <si>
+    <t>АМФИ.468157.003 РР0 7</t>
+  </si>
+  <si>
+    <t>БТ195.00.00.000 Д2-ЛУ</t>
+  </si>
+  <si>
+    <t>ГУ6.876.523</t>
+  </si>
+  <si>
+    <t>ГУ6.876.523 СБ</t>
+  </si>
+  <si>
+    <t>ГУ8.229.022</t>
+  </si>
+  <si>
+    <t>ДНИЯ.294709.018 (с входящими)</t>
+  </si>
+  <si>
+    <t>ДНИЯ.296361.004</t>
+  </si>
+  <si>
+    <t>ДНИЯ.296361.004 СБ</t>
+  </si>
+  <si>
+    <t>ДНИЯ.301568.021</t>
+  </si>
+  <si>
+    <t>ДНИЯ.301568.021 СБ</t>
+  </si>
+  <si>
+    <t>ДНИЯ.304274.030</t>
+  </si>
+  <si>
+    <t>ДНИЯ.304274.030 СБ</t>
+  </si>
+  <si>
+    <t>ДНИЯ.711147.157</t>
+  </si>
+  <si>
+    <t>ДНИЯ.711171.067</t>
+  </si>
+  <si>
+    <t>ДНИЯ.713362.028</t>
+  </si>
+  <si>
+    <t>ДНИЯ.713611.013</t>
+  </si>
+  <si>
+    <t>ДНИЯ.714333.029</t>
+  </si>
+  <si>
+    <t>ДНИЯ.714533.002</t>
+  </si>
+  <si>
+    <t>ДНИЯ.734323.021</t>
+  </si>
+  <si>
+    <t>ДНИЯ.741166.010</t>
+  </si>
+  <si>
+    <t>ДНИЯ.758128.005</t>
+  </si>
+  <si>
+    <t>ДНИЯ.758151.211</t>
+  </si>
+  <si>
+    <t>ДНИЯ.766167.001</t>
+  </si>
+  <si>
+    <t>ЕФИТ.468158.012 ПЭ3</t>
+  </si>
+  <si>
+    <t>ИВЯФ.741121.881</t>
+  </si>
+  <si>
+    <t>ИНАЯ.402113.130 И27</t>
+  </si>
+  <si>
+    <t>ИНАЯ.402113.130 И36</t>
+  </si>
+  <si>
+    <t>ИНАЯ.685623.304 Э4</t>
+  </si>
+  <si>
+    <t>ЛРДА.90144-01 13 01</t>
+  </si>
+  <si>
+    <t>МАВИ.464214.013</t>
+  </si>
+  <si>
+    <t>МАВИ.464334.033</t>
+  </si>
+  <si>
+    <t>МАВИ.467871.008</t>
+  </si>
+  <si>
+    <t>МАВИ.713511.007</t>
+  </si>
+  <si>
+    <t>НИДБ.461545.001 И3</t>
+  </si>
+  <si>
+    <t>НИДБ.461545.001 ИЭ10</t>
+  </si>
+  <si>
+    <t>НИДБ.461545.001 ИЭ12</t>
+  </si>
+  <si>
+    <t>ОСТ92-8585-2003</t>
+  </si>
+  <si>
+    <t>ЦДКТ.461271.015 РЭ</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>аннул</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>новый</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Инструкция по подготовке данных на пуск(14А14 ИЭ60). Издание первое (с 1 изделия)</t>
+  </si>
+  <si>
+    <t>РКН 14А15.БВВ-РНС2  Расчет  баллистический</t>
+  </si>
+  <si>
+    <t>Изделие  14С748 Инструкция  по  электрическим проверкам</t>
+  </si>
+  <si>
+    <t>Сборочно-защитный  блок. Транзитный кабель и кабели СУ</t>
+  </si>
+  <si>
+    <t>Комлпект магистралей теплоносителя в ПРО</t>
+  </si>
+  <si>
+    <t>Скоба2</t>
+  </si>
+  <si>
+    <t>Задвижка</t>
+  </si>
+  <si>
+    <t>Сборка кабельная К308</t>
+  </si>
+  <si>
+    <t>Сборка кабельная 394</t>
+  </si>
+  <si>
+    <t>Макет корпуса ПБ1</t>
+  </si>
+  <si>
+    <t>Макет корпуса ПБ2</t>
+  </si>
+  <si>
+    <t>Опытный образец блока второй  ступени  РН  "Союз-5" Для  стендовых  испытаний  Схема  пневмогидравлическая  принципиальная</t>
+  </si>
+  <si>
+    <t>Блок датчиков давления</t>
+  </si>
+  <si>
+    <t>Заборн  R</t>
+  </si>
+  <si>
+    <t>Заборник</t>
+  </si>
+  <si>
+    <t>Корпус   с  втулкой</t>
+  </si>
+  <si>
+    <t>Корпус ПрО</t>
+  </si>
+  <si>
     <t>Корпус</t>
   </si>
   <si>
-    <t>Крышка нижняя</t>
-  </si>
-  <si>
-    <t>Крышка</t>
-  </si>
-  <si>
-    <t>Хоторн</t>
-  </si>
-  <si>
-    <t>SpaceX</t>
+    <t>АСН С-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Батарея 11AER20AH-2                                                                                                      </t>
+  </si>
+  <si>
+    <t>Ящик</t>
+  </si>
+  <si>
+    <t>Втулка</t>
+  </si>
+  <si>
+    <t>Комплект приспособлений и инструмента для штифтовки</t>
+  </si>
+  <si>
+    <t>Приспособление для штифтовки</t>
+  </si>
+  <si>
+    <t>Кронштейн</t>
+  </si>
+  <si>
+    <t>Упор</t>
+  </si>
+  <si>
+    <t>Кольцо</t>
+  </si>
+  <si>
+    <t>Гильза</t>
+  </si>
+  <si>
+    <t>Обойма</t>
+  </si>
+  <si>
+    <t>Стойка</t>
+  </si>
+  <si>
+    <t>Болт</t>
+  </si>
+  <si>
+    <t>Винт</t>
+  </si>
+  <si>
+    <t>Валик контрольный</t>
+  </si>
+  <si>
+    <t>Перечень элементов</t>
+  </si>
+  <si>
+    <t>Планка</t>
+  </si>
+  <si>
+    <t>Комплекс командных приборов. Инструкция по внешнему осмотру</t>
+  </si>
+  <si>
+    <t>Комплекс командных приборов. Инструкция по оценке параметров системы телеметрических измерений</t>
+  </si>
+  <si>
+    <t>Схема электрическая соединений</t>
+  </si>
+  <si>
+    <t>Программный продукт</t>
+  </si>
+  <si>
+    <t>Модуль УМ-ОК-РЛК</t>
+  </si>
+  <si>
+    <t>Модуль ПРМ-ОК-РЛК</t>
+  </si>
+  <si>
+    <t>Модуль  ФГЧ-РЛК   Часть1</t>
+  </si>
+  <si>
+    <t>Стержень</t>
+  </si>
+  <si>
+    <t>ИПК. Инструкция по проверке</t>
+  </si>
+  <si>
+    <t>ИПК. Инструкция по монтажу кабельного комплекта</t>
+  </si>
+  <si>
+    <t>ИПК. Инструкция по определению АБН при монтаже и периодическом РТО</t>
+  </si>
+  <si>
+    <t>Отраслевой стандарт. Кабели. Изготовление заготовок</t>
+  </si>
+  <si>
+    <t>КПА ВБНС-АСН</t>
+  </si>
+  <si>
+    <t>Самара</t>
+  </si>
+  <si>
+    <t>Миасс</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новочеркасск </t>
+  </si>
+  <si>
+    <t>Каменск-Уральский</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>АО «РКЦ «Прогресс»</t>
+  </si>
+  <si>
+    <t>АО «ГРЦ Макеева»</t>
+  </si>
+  <si>
+    <t>АО «Корпорация «МИТ»</t>
+  </si>
+  <si>
+    <t>ФГУП "ФНПЦ НИИИИС им. Ю.Е. Седакова"</t>
+  </si>
+  <si>
+    <t>АО ИФ "Орион-ХИТ"</t>
+  </si>
+  <si>
+    <t>АО «УПКБ «Деталь»</t>
+  </si>
+  <si>
+    <t>АО "Концерн "ЦНИИ "Электроприбор"</t>
+  </si>
+  <si>
+    <t>ФГУП «НПЦАП»</t>
+  </si>
+  <si>
+    <t>АО «РКС»</t>
+  </si>
+  <si>
+    <t>АО «НИИ Командных приборов»</t>
+  </si>
+  <si>
+    <t>НИИСИ РАН</t>
+  </si>
+  <si>
+    <t>ОАО "НИИ ТП"</t>
+  </si>
+  <si>
+    <t>Филиал АО "ОРКК-НИИ КП"</t>
+  </si>
+  <si>
+    <t>ДСП</t>
   </si>
 </sst>
 </file>
@@ -435,22 +824,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="122.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,145 +863,1145 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44784</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
-        <v>44028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44271</v>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44718</v>
+      </c>
+      <c r="G13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="2">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="2">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="2">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="2">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="2">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="2">
+        <v>44190</v>
       </c>
     </row>
   </sheetData>
